--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>93.42766950000001</v>
+        <v>71.74534249999999</v>
       </c>
       <c r="H2">
-        <v>186.855339</v>
+        <v>143.490685</v>
       </c>
       <c r="I2">
-        <v>0.319845868560297</v>
+        <v>0.3162725852314364</v>
       </c>
       <c r="J2">
-        <v>0.2501060805639032</v>
+        <v>0.2568829979436479</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N2">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O2">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P2">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q2">
-        <v>518.6151715549448</v>
+        <v>619.9810277509387</v>
       </c>
       <c r="R2">
-        <v>2074.460686219779</v>
+        <v>2479.924111003755</v>
       </c>
       <c r="S2">
-        <v>0.1467426823921733</v>
+        <v>0.1026581131325162</v>
       </c>
       <c r="T2">
-        <v>0.09214205870716206</v>
+        <v>0.06305673192898037</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>93.42766950000001</v>
+        <v>71.74534249999999</v>
       </c>
       <c r="H3">
-        <v>186.855339</v>
+        <v>143.490685</v>
       </c>
       <c r="I3">
-        <v>0.319845868560297</v>
+        <v>0.3162725852314364</v>
       </c>
       <c r="J3">
-        <v>0.2501060805639032</v>
+        <v>0.2568829979436479</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P3">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q3">
-        <v>123.9978569540865</v>
+        <v>95.22092078339747</v>
       </c>
       <c r="R3">
-        <v>743.987141724519</v>
+        <v>571.3255247003849</v>
       </c>
       <c r="S3">
-        <v>0.0350853178586502</v>
+        <v>0.01576693418155905</v>
       </c>
       <c r="T3">
-        <v>0.03304594169729737</v>
+        <v>0.01452702536152796</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>93.42766950000001</v>
+        <v>71.74534249999999</v>
       </c>
       <c r="H4">
-        <v>186.855339</v>
+        <v>143.490685</v>
       </c>
       <c r="I4">
-        <v>0.319845868560297</v>
+        <v>0.3162725852314364</v>
       </c>
       <c r="J4">
-        <v>0.2501060805639032</v>
+        <v>0.2568829979436479</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N4">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O4">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P4">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q4">
-        <v>23.383450833138</v>
+        <v>40.19126256621666</v>
       </c>
       <c r="R4">
-        <v>140.300704998828</v>
+        <v>241.1475753973</v>
       </c>
       <c r="S4">
-        <v>0.006616370841123057</v>
+        <v>0.006654976515053668</v>
       </c>
       <c r="T4">
-        <v>0.006231786354175631</v>
+        <v>0.006131630379204014</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>93.42766950000001</v>
+        <v>71.74534249999999</v>
       </c>
       <c r="H5">
-        <v>186.855339</v>
+        <v>143.490685</v>
       </c>
       <c r="I5">
-        <v>0.319845868560297</v>
+        <v>0.3162725852314364</v>
       </c>
       <c r="J5">
-        <v>0.2501060805639032</v>
+        <v>0.2568829979436479</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N5">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O5">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P5">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q5">
-        <v>57.15484395497251</v>
+        <v>58.78824126251374</v>
       </c>
       <c r="R5">
-        <v>228.61937581989</v>
+        <v>235.152965050055</v>
       </c>
       <c r="S5">
-        <v>0.0161720203605154</v>
+        <v>0.009734313877767941</v>
       </c>
       <c r="T5">
-        <v>0.01015466819319577</v>
+        <v>0.005979206143314019</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>93.42766950000001</v>
+        <v>71.74534249999999</v>
       </c>
       <c r="H6">
-        <v>186.855339</v>
+        <v>143.490685</v>
       </c>
       <c r="I6">
-        <v>0.319845868560297</v>
+        <v>0.3162725852314364</v>
       </c>
       <c r="J6">
-        <v>0.2501060805639032</v>
+        <v>0.2568829979436479</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N6">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O6">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P6">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q6">
-        <v>373.8862597335471</v>
+        <v>1084.307904285569</v>
       </c>
       <c r="R6">
-        <v>2243.317558401282</v>
+        <v>6505.847425713415</v>
       </c>
       <c r="S6">
-        <v>0.105791491788367</v>
+        <v>0.179542596508851</v>
       </c>
       <c r="T6">
-        <v>0.09964223450370037</v>
+        <v>0.1654233995604056</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>93.42766950000001</v>
+        <v>71.74534249999999</v>
       </c>
       <c r="H7">
-        <v>186.855339</v>
+        <v>143.490685</v>
       </c>
       <c r="I7">
-        <v>0.319845868560297</v>
+        <v>0.3162725852314364</v>
       </c>
       <c r="J7">
-        <v>0.2501060805639032</v>
+        <v>0.2568829979436479</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N7">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O7">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P7">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q7">
-        <v>33.35554656489001</v>
+        <v>11.5691517141525</v>
       </c>
       <c r="R7">
-        <v>200.13327938934</v>
+        <v>69.414910284915</v>
       </c>
       <c r="S7">
-        <v>0.009437985319468101</v>
+        <v>0.001915651015688541</v>
       </c>
       <c r="T7">
-        <v>0.008889391108372027</v>
+        <v>0.001765004570215851</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>313.118858</v>
       </c>
       <c r="I8">
-        <v>0.3573166052255297</v>
+        <v>0.4601037839930169</v>
       </c>
       <c r="J8">
-        <v>0.4191099421838054</v>
+        <v>0.5605584150339195</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N8">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O8">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P8">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q8">
-        <v>579.3722249800898</v>
+        <v>901.9296334626891</v>
       </c>
       <c r="R8">
-        <v>3476.233349880538</v>
+        <v>5411.577800776135</v>
       </c>
       <c r="S8">
-        <v>0.1639339515313287</v>
+        <v>0.1493439157089455</v>
       </c>
       <c r="T8">
-        <v>0.1544050940720272</v>
+        <v>0.137599537494817</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>313.118858</v>
       </c>
       <c r="I9">
-        <v>0.3573166052255297</v>
+        <v>0.4601037839930169</v>
       </c>
       <c r="J9">
-        <v>0.4191099421838054</v>
+        <v>0.5605584150339195</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P9">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q9">
-        <v>138.5245133898686</v>
+        <v>138.5245133898687</v>
       </c>
       <c r="R9">
         <v>1246.720620508818</v>
       </c>
       <c r="S9">
-        <v>0.03919564985141636</v>
+        <v>0.02293725861062425</v>
       </c>
       <c r="T9">
-        <v>0.05537603357318216</v>
+        <v>0.03170021518357567</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>313.118858</v>
       </c>
       <c r="I10">
-        <v>0.3573166052255297</v>
+        <v>0.4601037839930169</v>
       </c>
       <c r="J10">
-        <v>0.4191099421838054</v>
+        <v>0.5605584150339195</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N10">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O10">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P10">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q10">
-        <v>26.122880085224</v>
+        <v>58.46903226418222</v>
       </c>
       <c r="R10">
-        <v>235.105920767016</v>
+        <v>526.2212903776401</v>
       </c>
       <c r="S10">
-        <v>0.007391495092635809</v>
+        <v>0.00968145839994387</v>
       </c>
       <c r="T10">
-        <v>0.01044278336900749</v>
+        <v>0.01338016542338249</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>313.118858</v>
       </c>
       <c r="I11">
-        <v>0.3573166052255297</v>
+        <v>0.4601037839930169</v>
       </c>
       <c r="J11">
-        <v>0.4191099421838054</v>
+        <v>0.5605584150339195</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N11">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O11">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P11">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q11">
-        <v>63.85067565859667</v>
+        <v>85.52335397449568</v>
       </c>
       <c r="R11">
-        <v>383.10405395158</v>
+        <v>513.1401238469741</v>
       </c>
       <c r="S11">
-        <v>0.01806661264961172</v>
+        <v>0.01416118518922326</v>
       </c>
       <c r="T11">
-        <v>0.01701646913081986</v>
+        <v>0.01304755217623409</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>313.118858</v>
       </c>
       <c r="I12">
-        <v>0.3573166052255297</v>
+        <v>0.4601037839930169</v>
       </c>
       <c r="J12">
-        <v>0.4191099421838054</v>
+        <v>0.5605584150339195</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N12">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O12">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P12">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q12">
-        <v>417.6879622357116</v>
+        <v>1577.41831910678</v>
       </c>
       <c r="R12">
-        <v>3759.191660121404</v>
+        <v>14196.76487196103</v>
       </c>
       <c r="S12">
-        <v>0.1181852273962938</v>
+        <v>0.2611931349699632</v>
       </c>
       <c r="T12">
-        <v>0.1669733540574233</v>
+        <v>0.3609794319180505</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>313.118858</v>
       </c>
       <c r="I13">
-        <v>0.3573166052255297</v>
+        <v>0.4601037839930169</v>
       </c>
       <c r="J13">
-        <v>0.4191099421838054</v>
+        <v>0.5605584150339195</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N13">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O13">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P13">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q13">
-        <v>37.26323156105334</v>
+        <v>16.830451736358</v>
       </c>
       <c r="R13">
-        <v>335.36908404948</v>
+        <v>151.474065627222</v>
       </c>
       <c r="S13">
-        <v>0.01054366870424333</v>
+        <v>0.002786831114316752</v>
       </c>
       <c r="T13">
-        <v>0.01489620798134541</v>
+        <v>0.003851512837859602</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.05691833333333333</v>
+        <v>0.14495</v>
       </c>
       <c r="H14">
-        <v>0.170755</v>
+        <v>0.43485</v>
       </c>
       <c r="I14">
-        <v>0.00019485762472117</v>
+        <v>0.0006389782197958942</v>
       </c>
       <c r="J14">
-        <v>0.0002285557587770574</v>
+        <v>0.0007784865732280483</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N14">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O14">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P14">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q14">
-        <v>0.3159525584258333</v>
+        <v>1.252572596925</v>
       </c>
       <c r="R14">
-        <v>1.895715350555</v>
+        <v>7.51543558155</v>
       </c>
       <c r="S14">
-        <v>8.939909295955604E-05</v>
+        <v>0.0002074043133679127</v>
       </c>
       <c r="T14">
-        <v>8.420266350827395E-05</v>
+        <v>0.0001910940761019931</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.05691833333333333</v>
+        <v>0.14495</v>
       </c>
       <c r="H15">
-        <v>0.170755</v>
+        <v>0.43485</v>
       </c>
       <c r="I15">
-        <v>0.00019485762472117</v>
+        <v>0.0006389782197958942</v>
       </c>
       <c r="J15">
-        <v>0.0002285557587770574</v>
+        <v>0.0007784865732280483</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P15">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q15">
-        <v>0.07554241042833332</v>
+        <v>0.19237865465</v>
       </c>
       <c r="R15">
-        <v>0.6798816938549999</v>
+        <v>1.73140789185</v>
       </c>
       <c r="S15">
-        <v>2.13748007166614E-05</v>
+        <v>3.185457104225245E-05</v>
       </c>
       <c r="T15">
-        <v>3.019854720084831E-05</v>
+        <v>4.402430010324667E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.05691833333333333</v>
+        <v>0.14495</v>
       </c>
       <c r="H16">
-        <v>0.170755</v>
+        <v>0.43485</v>
       </c>
       <c r="I16">
-        <v>0.00019485762472117</v>
+        <v>0.0006389782197958942</v>
       </c>
       <c r="J16">
-        <v>0.0002285557587770574</v>
+        <v>0.0007784865732280483</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N16">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O16">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P16">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q16">
-        <v>0.01424574814</v>
+        <v>0.08120002366666666</v>
       </c>
       <c r="R16">
-        <v>0.12821173326</v>
+        <v>0.730800213</v>
       </c>
       <c r="S16">
-        <v>4.03084870903249E-06</v>
+        <v>1.344531661908269E-05</v>
       </c>
       <c r="T16">
-        <v>5.694826193364803E-06</v>
+        <v>1.858196906925955E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.05691833333333333</v>
+        <v>0.14495</v>
       </c>
       <c r="H17">
-        <v>0.170755</v>
+        <v>0.43485</v>
       </c>
       <c r="I17">
-        <v>0.00019485762472117</v>
+        <v>0.0006389782197958942</v>
       </c>
       <c r="J17">
-        <v>0.0002285557587770574</v>
+        <v>0.0007784865732280483</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N17">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O17">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P17">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q17">
-        <v>0.03482007500833333</v>
+        <v>0.118772247425</v>
       </c>
       <c r="R17">
-        <v>0.20892045005</v>
+        <v>0.71263348455</v>
       </c>
       <c r="S17">
-        <v>9.852375109851892E-06</v>
+        <v>1.96666256988384E-05</v>
       </c>
       <c r="T17">
-        <v>9.279693995412905E-06</v>
+        <v>1.812004585120004E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.05691833333333333</v>
+        <v>0.14495</v>
       </c>
       <c r="H18">
-        <v>0.170755</v>
+        <v>0.43485</v>
       </c>
       <c r="I18">
-        <v>0.00019485762472117</v>
+        <v>0.0006389782197958942</v>
       </c>
       <c r="J18">
-        <v>0.0002285557587770574</v>
+        <v>0.0007784865732280483</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N18">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O18">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P18">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q18">
-        <v>0.2277803018544445</v>
+        <v>2.190670854016667</v>
       </c>
       <c r="R18">
-        <v>2.05002271669</v>
+        <v>19.71603768615</v>
       </c>
       <c r="S18">
-        <v>6.44506646228703E-05</v>
+        <v>0.0003627371263013756</v>
       </c>
       <c r="T18">
-        <v>9.105658871582661E-05</v>
+        <v>0.0005013173175585747</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.05691833333333333</v>
+        <v>0.14495</v>
       </c>
       <c r="H19">
-        <v>0.170755</v>
+        <v>0.43485</v>
       </c>
       <c r="I19">
-        <v>0.00019485762472117</v>
+        <v>0.0006389782197958942</v>
       </c>
       <c r="J19">
-        <v>0.0002285557587770574</v>
+        <v>0.0007784865732280483</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N19">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O19">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P19">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q19">
-        <v>0.02032098336666667</v>
+        <v>0.02337362235</v>
       </c>
       <c r="R19">
-        <v>0.1828888503</v>
+        <v>0.21036260115</v>
       </c>
       <c r="S19">
-        <v>5.749842603197886E-06</v>
+        <v>3.870266766432316E-06</v>
       </c>
       <c r="T19">
-        <v>8.123439163330865E-06</v>
+        <v>5.348864543774133E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>35.7744715</v>
+        <v>50.2104705</v>
       </c>
       <c r="H20">
-        <v>71.54894299999999</v>
+        <v>100.420941</v>
       </c>
       <c r="I20">
-        <v>0.1224724642115052</v>
+        <v>0.2213411318054795</v>
       </c>
       <c r="J20">
-        <v>0.09576834035349729</v>
+        <v>0.1797777491995539</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N20">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O20">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P20">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q20">
-        <v>198.5833936943058</v>
+        <v>433.8893371991107</v>
       </c>
       <c r="R20">
-        <v>794.333574777223</v>
+        <v>1735.557348796443</v>
       </c>
       <c r="S20">
-        <v>0.05618937020656769</v>
+        <v>0.07184455438380363</v>
       </c>
       <c r="T20">
-        <v>0.03528219713508637</v>
+        <v>0.04412980784566577</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>35.7744715</v>
+        <v>50.2104705</v>
       </c>
       <c r="H21">
-        <v>71.54894299999999</v>
+        <v>100.420941</v>
       </c>
       <c r="I21">
-        <v>0.1224724642115052</v>
+        <v>0.2213411318054795</v>
       </c>
       <c r="J21">
-        <v>0.09576834035349729</v>
+        <v>0.1797777491995539</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P21">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q21">
-        <v>47.48012899610049</v>
+        <v>66.63968792089349</v>
       </c>
       <c r="R21">
-        <v>284.8807739766029</v>
+        <v>399.838127525361</v>
       </c>
       <c r="S21">
-        <v>0.01343455006980263</v>
+        <v>0.01103437736879732</v>
       </c>
       <c r="T21">
-        <v>0.01265365074145006</v>
+        <v>0.0101666359508668</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>35.7744715</v>
+        <v>50.2104705</v>
       </c>
       <c r="H22">
-        <v>71.54894299999999</v>
+        <v>100.420941</v>
       </c>
       <c r="I22">
-        <v>0.1224724642115052</v>
+        <v>0.2213411318054795</v>
       </c>
       <c r="J22">
-        <v>0.09576834035349729</v>
+        <v>0.1797777491995539</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N22">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O22">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P22">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q22">
-        <v>8.953777824906</v>
+        <v>28.12757083763</v>
       </c>
       <c r="R22">
-        <v>53.72266694943599</v>
+        <v>168.76542502578</v>
       </c>
       <c r="S22">
-        <v>0.002533480406349939</v>
+        <v>0.004657438243984898</v>
       </c>
       <c r="T22">
-        <v>0.002386218820555564</v>
+        <v>0.004291178152392637</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>35.7744715</v>
+        <v>50.2104705</v>
       </c>
       <c r="H23">
-        <v>71.54894299999999</v>
+        <v>100.420941</v>
       </c>
       <c r="I23">
-        <v>0.1224724642115052</v>
+        <v>0.2213411318054795</v>
       </c>
       <c r="J23">
-        <v>0.09576834035349729</v>
+        <v>0.1797777491995539</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N23">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O23">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P23">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q23">
-        <v>21.8852118124825</v>
+        <v>41.14253484340575</v>
       </c>
       <c r="R23">
-        <v>87.54084724993</v>
+        <v>164.570139373623</v>
       </c>
       <c r="S23">
-        <v>0.006192442609142442</v>
+        <v>0.006812490717392671</v>
       </c>
       <c r="T23">
-        <v>0.003888332972593717</v>
+        <v>0.004184505128988511</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>35.7744715</v>
+        <v>50.2104705</v>
       </c>
       <c r="H24">
-        <v>71.54894299999999</v>
+        <v>100.420941</v>
       </c>
       <c r="I24">
-        <v>0.1224724642115052</v>
+        <v>0.2213411318054795</v>
       </c>
       <c r="J24">
-        <v>0.09576834035349729</v>
+        <v>0.1797777491995539</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N24">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O24">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P24">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q24">
-        <v>143.1651181567723</v>
+        <v>758.8452175978865</v>
       </c>
       <c r="R24">
-        <v>858.990708940634</v>
+        <v>4553.071305587319</v>
       </c>
       <c r="S24">
-        <v>0.04050871361963512</v>
+        <v>0.125651616277406</v>
       </c>
       <c r="T24">
-        <v>0.03815409607802477</v>
+        <v>0.1157703961568998</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>35.7744715</v>
+        <v>50.2104705</v>
       </c>
       <c r="H25">
-        <v>71.54894299999999</v>
+        <v>100.420941</v>
       </c>
       <c r="I25">
-        <v>0.1224724642115052</v>
+        <v>0.2213411318054795</v>
       </c>
       <c r="J25">
-        <v>0.09576834035349729</v>
+        <v>0.1797777491995539</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N25">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O25">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P25">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q25">
-        <v>12.77220181493</v>
+        <v>8.0965889995365</v>
       </c>
       <c r="R25">
-        <v>76.63321088958</v>
+        <v>48.579533997219</v>
       </c>
       <c r="S25">
-        <v>0.003613907300007413</v>
+        <v>0.001340654814095069</v>
       </c>
       <c r="T25">
-        <v>0.003403844605786816</v>
+        <v>0.001235225964740334</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>58.20230466666667</v>
+        <v>0.3389606666666667</v>
       </c>
       <c r="H26">
-        <v>174.606914</v>
+        <v>1.016882</v>
       </c>
       <c r="I26">
-        <v>0.1992532489352207</v>
+        <v>0.001494228929751612</v>
       </c>
       <c r="J26">
-        <v>0.2337115499809108</v>
+        <v>0.001820464490185775</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N26">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O26">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P26">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q26">
-        <v>323.0798582597257</v>
+        <v>2.929098602981</v>
       </c>
       <c r="R26">
-        <v>1938.479149558354</v>
+        <v>17.574591617886</v>
       </c>
       <c r="S26">
-        <v>0.09141576958839981</v>
+        <v>0.0004850079636338734</v>
       </c>
       <c r="T26">
-        <v>0.0861021183904432</v>
+        <v>0.0004468670260888742</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>58.20230466666667</v>
+        <v>0.3389606666666667</v>
       </c>
       <c r="H27">
-        <v>174.606914</v>
+        <v>1.016882</v>
       </c>
       <c r="I27">
-        <v>0.1992532489352207</v>
+        <v>0.001494228929751612</v>
       </c>
       <c r="J27">
-        <v>0.2337115499809108</v>
+        <v>0.001820464490185775</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>3.981621</v>
       </c>
       <c r="O27">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P27">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q27">
-        <v>77.24650616973265</v>
+        <v>0.4498709695246667</v>
       </c>
       <c r="R27">
-        <v>695.218555527594</v>
+        <v>4.048838725722</v>
       </c>
       <c r="S27">
-        <v>0.0218569763140244</v>
+        <v>7.449083571481605E-05</v>
       </c>
       <c r="T27">
-        <v>0.03087977004493844</v>
+        <v>0.0001029493350295267</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>58.20230466666667</v>
+        <v>0.3389606666666667</v>
       </c>
       <c r="H28">
-        <v>174.606914</v>
+        <v>1.016882</v>
       </c>
       <c r="I28">
-        <v>0.1992532489352207</v>
+        <v>0.001494228929751612</v>
       </c>
       <c r="J28">
-        <v>0.2337115499809108</v>
+        <v>0.001820464490185775</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N28">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O28">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P28">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q28">
-        <v>14.567105621192</v>
+        <v>0.1898835057288889</v>
       </c>
       <c r="R28">
-        <v>131.103950590728</v>
+        <v>1.70895155156</v>
       </c>
       <c r="S28">
-        <v>0.004121777130303927</v>
+        <v>3.144141762503401E-05</v>
       </c>
       <c r="T28">
-        <v>0.005823290840032771</v>
+        <v>4.345330544115625E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>58.20230466666667</v>
+        <v>0.3389606666666667</v>
       </c>
       <c r="H29">
-        <v>174.606914</v>
+        <v>1.016882</v>
       </c>
       <c r="I29">
-        <v>0.1992532489352207</v>
+        <v>0.001494228929751612</v>
       </c>
       <c r="J29">
-        <v>0.2337115499809108</v>
+        <v>0.001820464490185775</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N29">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O29">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P29">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q29">
-        <v>35.60555089135667</v>
+        <v>0.2777448787076667</v>
       </c>
       <c r="R29">
-        <v>213.63330534814</v>
+        <v>1.666469272246</v>
       </c>
       <c r="S29">
-        <v>0.01007462629792188</v>
+        <v>4.598973824051098E-05</v>
       </c>
       <c r="T29">
-        <v>0.009489026566738178</v>
+        <v>4.237311363748418E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>58.20230466666667</v>
+        <v>0.3389606666666667</v>
       </c>
       <c r="H30">
-        <v>174.606914</v>
+        <v>1.016882</v>
       </c>
       <c r="I30">
-        <v>0.1992532489352207</v>
+        <v>0.001494228929751612</v>
       </c>
       <c r="J30">
-        <v>0.2337115499809108</v>
+        <v>0.001820464490185775</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N30">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O30">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P30">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q30">
-        <v>232.9186001979036</v>
+        <v>5.12280961107089</v>
       </c>
       <c r="R30">
-        <v>2096.267401781132</v>
+        <v>46.10528649963801</v>
       </c>
       <c r="S30">
-        <v>0.06590455128721477</v>
+        <v>0.0008482484867600217</v>
       </c>
       <c r="T30">
-        <v>0.09311065535438323</v>
+        <v>0.001172313571377713</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>58.20230466666667</v>
+        <v>0.3389606666666667</v>
       </c>
       <c r="H31">
-        <v>174.606914</v>
+        <v>1.016882</v>
       </c>
       <c r="I31">
-        <v>0.1992532489352207</v>
+        <v>0.001494228929751612</v>
       </c>
       <c r="J31">
-        <v>0.2337115499809108</v>
+        <v>0.001820464490185775</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N31">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O31">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P31">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q31">
-        <v>20.77938681209334</v>
+        <v>0.05465842438200001</v>
       </c>
       <c r="R31">
-        <v>187.01448130884</v>
+        <v>0.4919258194380001</v>
       </c>
       <c r="S31">
-        <v>0.005879548317355917</v>
+        <v>9.050487777355933E-06</v>
       </c>
       <c r="T31">
-        <v>0.00830668878437495</v>
+        <v>1.250813861102019E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.2678446666666667</v>
+        <v>0.03386633333333334</v>
       </c>
       <c r="H32">
-        <v>0.803534</v>
+        <v>0.101599</v>
       </c>
       <c r="I32">
-        <v>0.0009169554427261318</v>
+        <v>0.0001492918205198185</v>
       </c>
       <c r="J32">
-        <v>0.001075531159106112</v>
+        <v>0.0001818867594650948</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N32">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O32">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P32">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q32">
-        <v>1.486800521695667</v>
+        <v>0.2926529223295001</v>
       </c>
       <c r="R32">
-        <v>8.920803130174001</v>
+        <v>1.755917533977</v>
       </c>
       <c r="S32">
-        <v>0.0004206916972396938</v>
+        <v>4.845825188885034E-05</v>
       </c>
       <c r="T32">
-        <v>0.0003962384880059583</v>
+        <v>4.464750382404599E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.2678446666666667</v>
+        <v>0.03386633333333334</v>
       </c>
       <c r="H33">
-        <v>0.803534</v>
+        <v>0.101599</v>
       </c>
       <c r="I33">
-        <v>0.0009169554427261318</v>
+        <v>0.0001492918205198185</v>
       </c>
       <c r="J33">
-        <v>0.001075531159106112</v>
+        <v>0.0001818867594650948</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>3.981621</v>
       </c>
       <c r="O33">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P33">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q33">
-        <v>0.3554853165126666</v>
+        <v>0.04494763466433333</v>
       </c>
       <c r="R33">
-        <v>3.199367848614</v>
+        <v>0.404528711979</v>
       </c>
       <c r="S33">
-        <v>0.0001005849264681081</v>
+        <v>7.44254930049858E-06</v>
       </c>
       <c r="T33">
-        <v>0.0001421074605515883</v>
+        <v>1.028590287729046E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.2678446666666667</v>
+        <v>0.03386633333333334</v>
       </c>
       <c r="H34">
-        <v>0.803534</v>
+        <v>0.101599</v>
       </c>
       <c r="I34">
-        <v>0.0009169554427261318</v>
+        <v>0.0001492918205198185</v>
       </c>
       <c r="J34">
-        <v>0.001075531159106112</v>
+        <v>0.0001818867594650948</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N34">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O34">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P34">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q34">
-        <v>0.067037234552</v>
+        <v>0.01897169415777778</v>
       </c>
       <c r="R34">
-        <v>0.603335110968</v>
+        <v>0.17074524742</v>
       </c>
       <c r="S34">
-        <v>1.896825268111454E-05</v>
+        <v>3.141383748837949E-06</v>
       </c>
       <c r="T34">
-        <v>2.679855038188747E-05</v>
+        <v>4.3415188581527E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.2678446666666667</v>
+        <v>0.03386633333333334</v>
       </c>
       <c r="H35">
-        <v>0.803534</v>
+        <v>0.101599</v>
       </c>
       <c r="I35">
-        <v>0.0009169554427261318</v>
+        <v>0.0001492918205198185</v>
       </c>
       <c r="J35">
-        <v>0.001075531159106112</v>
+        <v>0.0001818867594650948</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N35">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O35">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P35">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q35">
-        <v>0.1638553140566667</v>
+        <v>0.02775012433283334</v>
       </c>
       <c r="R35">
-        <v>0.9831318843400001</v>
+        <v>0.166500745997</v>
       </c>
       <c r="S35">
-        <v>4.636302527902393E-05</v>
+        <v>4.594939644420567E-06</v>
       </c>
       <c r="T35">
-        <v>4.366811885397273E-05</v>
+        <v>4.233594431266122E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.2678446666666667</v>
+        <v>0.03386633333333334</v>
       </c>
       <c r="H36">
-        <v>0.803534</v>
+        <v>0.101599</v>
       </c>
       <c r="I36">
-        <v>0.0009169554427261318</v>
+        <v>0.0001492918205198185</v>
       </c>
       <c r="J36">
-        <v>0.001075531159106112</v>
+        <v>0.0001818867594650948</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N36">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O36">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P36">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q36">
-        <v>1.071882036076889</v>
+        <v>0.5118315927267779</v>
       </c>
       <c r="R36">
-        <v>9.646938324692</v>
+        <v>4.606484334541001</v>
       </c>
       <c r="S36">
-        <v>0.0003032900960269009</v>
+        <v>8.475044106035062E-05</v>
       </c>
       <c r="T36">
-        <v>0.0004284914934097568</v>
+        <v>0.0001171285228162209</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.2678446666666667</v>
+        <v>0.03386633333333334</v>
       </c>
       <c r="H37">
-        <v>0.803534</v>
+        <v>0.101599</v>
       </c>
       <c r="I37">
-        <v>0.0009169554427261318</v>
+        <v>0.0001492918205198185</v>
       </c>
       <c r="J37">
-        <v>0.001075531159106112</v>
+        <v>0.0001818867594650948</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N37">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O37">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P37">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q37">
-        <v>0.09562590289333335</v>
+        <v>0.005461047849000002</v>
       </c>
       <c r="R37">
-        <v>0.8606331260400001</v>
+        <v>0.04914943064100001</v>
       </c>
       <c r="S37">
-        <v>2.705744503129051E-05</v>
+        <v>9.042548768604277E-07</v>
       </c>
       <c r="T37">
-        <v>3.822704790294811E-05</v>
+        <v>1.24971665811868E-06</v>
       </c>
     </row>
   </sheetData>
